--- a/Design Spark/rev 2/Dummy Load Rev 2 (Bill Of Materials).xlsx
+++ b/Design Spark/rev 2/Dummy Load Rev 2 (Bill Of Materials).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="222">
   <si>
     <t>Ref Name</t>
   </si>
@@ -536,13 +536,158 @@
   </si>
   <si>
     <t>PN2222</t>
+  </si>
+  <si>
+    <t>Element 14 Part Number</t>
+  </si>
+  <si>
+    <t>Digikey Part Number</t>
+  </si>
+  <si>
+    <t>eBay Item Number</t>
+  </si>
+  <si>
+    <t>1276-1007-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1763-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1081-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1066-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1047-1-ND </t>
+  </si>
+  <si>
+    <t>718-1123-1-ND</t>
+  </si>
+  <si>
+    <t>WM8247-ND </t>
+  </si>
+  <si>
+    <t>1N4001-TPMSCT-ND </t>
+  </si>
+  <si>
+    <t>CD1206-S01575CT-ND </t>
+  </si>
+  <si>
+    <t>259-1558-ND</t>
+  </si>
+  <si>
+    <t>MF-MSMF050-2CT-ND </t>
+  </si>
+  <si>
+    <t>ED2983-ND</t>
+  </si>
+  <si>
+    <t>732-1612-1-ND</t>
+  </si>
+  <si>
+    <t>754-1131-2-ND</t>
+  </si>
+  <si>
+    <t>754-1128-1-ND </t>
+  </si>
+  <si>
+    <t>BUK954R8-60E,127</t>
+  </si>
+  <si>
+    <t>PT1.0YCT-ND</t>
+  </si>
+  <si>
+    <t>CRT0805-BY-1002ELFCT-ND</t>
+  </si>
+  <si>
+    <t>P220KDACT-ND</t>
+  </si>
+  <si>
+    <t>P15KDACT-ND</t>
+  </si>
+  <si>
+    <t>Z987-ND</t>
+  </si>
+  <si>
+    <t>ADR380ARTZ-REEL7CT-ND</t>
+  </si>
+  <si>
+    <t>LM324AMX/NOPBCT-ND </t>
+  </si>
+  <si>
+    <t>MCP3204T-CI/SLCT-ND</t>
+  </si>
+  <si>
+    <t>MCP4922T-E/SLCT-ND</t>
+  </si>
+  <si>
+    <t>PN2222AD26ZCT-ND</t>
+  </si>
+  <si>
+    <t>LM94022BIMG/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>ATMEGA32U4-AURCT-ND </t>
+  </si>
+  <si>
+    <t>887-1608-1-ND</t>
+  </si>
+  <si>
+    <t>CG0603MLC-05ECT-ND</t>
+  </si>
+  <si>
+    <t>For these resistors I would suggest getting a generic pack of 0805 resistors that you can use in the future if you like 
+111428926233</t>
+  </si>
+  <si>
+    <t>3362P-1-103LF</t>
+  </si>
+  <si>
+    <t>3362P-103LF-ND</t>
+  </si>
+  <si>
+    <t>PCB Stand-offs</t>
+  </si>
+  <si>
+    <t>9072-ND</t>
+  </si>
+  <si>
+    <t>M3 Screws</t>
+  </si>
+  <si>
+    <t>Heatsink</t>
+  </si>
+  <si>
+    <t>OS518-100-B</t>
+  </si>
+  <si>
+    <t>Heatsink Clip</t>
+  </si>
+  <si>
+    <t>MAX01G</t>
+  </si>
+  <si>
+    <t>Thermal Pad</t>
+  </si>
+  <si>
+    <t>CM20-NA-314</t>
+  </si>
+  <si>
+    <t>Fan Guard</t>
+  </si>
+  <si>
+    <t>MC34243</t>
+  </si>
+  <si>
+    <t>Cannot Find</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,6 +822,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -976,7 +1134,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1019,14 +1177,30 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1060,6 +1234,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1363,10 +1538,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1378,9 +1553,12 @@
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1">
+    <row r="1" spans="1:10" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1402,8 +1580,17 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -1422,8 +1609,14 @@
       <c r="G2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -1442,8 +1635,14 @@
       <c r="G3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="4">
+        <v>2320829</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -1462,8 +1661,14 @@
       <c r="G4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="4">
+        <v>2320823</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -1482,8 +1687,14 @@
       <c r="G5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -1502,8 +1713,14 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>171</v>
       </c>
@@ -1522,8 +1739,14 @@
       <c r="G7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="4">
+        <v>2320827</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -1539,8 +1762,14 @@
       <c r="E8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="4">
+        <v>1754182</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -1559,8 +1788,14 @@
       <c r="G9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -1579,8 +1814,14 @@
       <c r="G10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1599,8 +1840,14 @@
       <c r="G11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1619,8 +1866,14 @@
       <c r="G12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1639,8 +1892,14 @@
       <c r="G13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1659,8 +1918,14 @@
       <c r="G14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1676,8 +1941,14 @@
       <c r="E15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="4">
+        <v>1754182</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1696,8 +1967,14 @@
       <c r="G16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1716,8 +1993,14 @@
       <c r="G17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1736,8 +2019,14 @@
       <c r="G18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1753,8 +2042,14 @@
       <c r="E19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="4">
+        <v>1754182</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1773,8 +2068,14 @@
       <c r="G20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="4">
+        <v>2320827</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1793,8 +2094,14 @@
       <c r="G21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="4">
+        <v>2332763</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1813,8 +2120,14 @@
       <c r="G22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="4">
+        <v>2332763</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1825,7 +2138,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>805</v>
@@ -1833,8 +2146,14 @@
       <c r="G23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="4">
+        <v>2320827</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1853,8 +2172,14 @@
       <c r="G24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1873,8 +2198,14 @@
       <c r="G25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="4">
+        <v>1759265</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1885,7 +2216,7 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>805</v>
@@ -1893,8 +2224,14 @@
       <c r="G26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="4">
+        <v>2320827</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -1907,8 +2244,14 @@
       <c r="E27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="4">
+        <v>1508414</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1921,8 +2264,14 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="4">
+        <v>1843694</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1935,8 +2284,14 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="4">
+        <v>1843694</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1949,8 +2304,14 @@
       <c r="E30" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="4">
+        <v>2211947</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -1963,8 +2324,11 @@
       <c r="E31" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="J31" s="5">
+        <v>111415780070</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1977,8 +2341,14 @@
       <c r="E32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="4">
+        <v>1924834</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -1994,8 +2364,14 @@
       <c r="E33">
         <v>1812</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="4">
+        <v>2128216</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -2008,8 +2384,14 @@
       <c r="E34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="4">
+        <v>1308876</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2022,8 +2404,14 @@
       <c r="E35">
         <v>805</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="4">
+        <v>1635729</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -2036,8 +2424,11 @@
       <c r="E36" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="J36" s="5">
+        <v>400448319287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -2056,8 +2447,14 @@
       <c r="G37" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="4">
+        <v>2099236</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2076,8 +2473,14 @@
       <c r="G38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="4">
+        <v>2099239</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -2096,8 +2499,14 @@
       <c r="G39" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="4">
+        <v>2099239</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2110,8 +2519,14 @@
       <c r="E40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="4">
+        <v>2254188</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2127,8 +2542,11 @@
       <c r="G41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="J41" s="5">
+        <v>371104220164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -2144,8 +2562,11 @@
       <c r="G42" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="J42" s="5">
+        <v>371104220164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -2167,8 +2588,14 @@
       <c r="G43" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="4">
+        <v>2081851</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>163</v>
       </c>
@@ -2190,8 +2617,14 @@
       <c r="G44" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="4">
+        <v>2081851</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -2213,8 +2646,14 @@
       <c r="G45" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="4">
+        <v>2081851</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>165</v>
       </c>
@@ -2236,8 +2675,14 @@
       <c r="G46" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="4">
+        <v>2081851</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -2259,8 +2704,14 @@
       <c r="G47" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="4">
+        <v>2081851</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -2282,8 +2733,14 @@
       <c r="G48" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="4">
+        <v>2081851</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -2305,8 +2762,14 @@
       <c r="G49" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="4">
+        <v>2081851</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>169</v>
       </c>
@@ -2328,8 +2791,14 @@
       <c r="G50" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="4">
+        <v>2081851</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -2351,8 +2820,14 @@
       <c r="G51" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="4">
+        <v>2081851</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -2374,8 +2849,14 @@
       <c r="G52" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="4">
+        <v>2081851</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -2397,8 +2878,14 @@
       <c r="G53" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="4">
+        <v>1577690</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>108</v>
       </c>
@@ -2420,8 +2907,14 @@
       <c r="G54" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="4">
+        <v>1577673</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>110</v>
       </c>
@@ -2443,8 +2936,14 @@
       <c r="G55" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="4">
+        <v>1577673</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>106</v>
       </c>
@@ -2463,8 +2962,11 @@
       <c r="G56" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="J56" s="7">
+        <v>111428926233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -2483,8 +2985,11 @@
       <c r="G57" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="J57" s="7">
+        <v>111428926233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -2503,8 +3008,11 @@
       <c r="G58" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="J58" s="7">
+        <v>111428926233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -2526,8 +3034,14 @@
       <c r="G59" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="4">
+        <v>1577673</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2549,8 +3063,14 @@
       <c r="G60" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="4">
+        <v>1577675</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -2569,8 +3089,11 @@
       <c r="G61" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="J61" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>113</v>
       </c>
@@ -2589,8 +3112,9 @@
       <c r="G62" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -2609,8 +3133,9 @@
       <c r="G63" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -2629,8 +3154,9 @@
       <c r="G64" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -2649,8 +3175,9 @@
       <c r="G65" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -2669,8 +3196,9 @@
       <c r="G66" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -2689,8 +3217,9 @@
       <c r="G67" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -2709,8 +3238,9 @@
       <c r="G68" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -2729,8 +3259,9 @@
       <c r="G69" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -2749,8 +3280,9 @@
       <c r="G70" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -2769,8 +3301,9 @@
       <c r="G71" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -2789,8 +3322,11 @@
       <c r="G72" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="J72" s="7">
+        <v>111428926233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>136</v>
       </c>
@@ -2809,8 +3345,14 @@
       <c r="G73" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="I73" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -2829,8 +3371,11 @@
       <c r="G74" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="J74" s="7">
+        <v>111428926233</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -2843,8 +3388,14 @@
       <c r="E75" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="4">
+        <v>9949933</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -2857,8 +3408,11 @@
       <c r="E76" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="J76" s="5">
+        <v>221432348499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>141</v>
       </c>
@@ -2871,8 +3425,11 @@
       <c r="E77" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="J77" s="5">
+        <v>371104220164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -2885,8 +3442,11 @@
       <c r="E78" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="J78" s="5">
+        <v>371104220164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -2899,8 +3459,11 @@
       <c r="E79" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="J79" s="5">
+        <v>371104220164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -2913,8 +3476,11 @@
       <c r="E80" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="J80" s="5">
+        <v>371104220164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>145</v>
       </c>
@@ -2927,8 +3493,11 @@
       <c r="E81" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="J81" s="5">
+        <v>371104220164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>146</v>
       </c>
@@ -2941,8 +3510,11 @@
       <c r="E82" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="J82" s="5">
+        <v>371104220164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -2955,8 +3527,11 @@
       <c r="E83" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="J83" s="5">
+        <v>371104220164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>148</v>
       </c>
@@ -2969,8 +3544,11 @@
       <c r="E84" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="J84" s="5">
+        <v>371104220164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -2983,8 +3561,11 @@
       <c r="E85" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="J85" s="5">
+        <v>371104220164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>150</v>
       </c>
@@ -2997,8 +3578,11 @@
       <c r="E86" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="J86" s="5">
+        <v>371104220164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -3011,8 +3595,14 @@
       <c r="E87" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" s="4">
+        <v>2067815</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>80</v>
       </c>
@@ -3028,8 +3618,14 @@
       <c r="G88" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="4">
+        <v>1262620</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3042,8 +3638,14 @@
       <c r="E89" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="4">
+        <v>1196795</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -3056,8 +3658,14 @@
       <c r="E90" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" s="4">
+        <v>1332114</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -3070,8 +3678,14 @@
       <c r="E91" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" s="4">
+        <v>1695606</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -3084,8 +3698,14 @@
       <c r="E92" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" s="4">
+        <v>1312600</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -3098,8 +3718,14 @@
       <c r="E93" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" s="4">
+        <v>1312600</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -3112,8 +3738,14 @@
       <c r="E94" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" s="4">
+        <v>1748525</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -3126,8 +3758,14 @@
       <c r="E95" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" s="4">
+        <v>2142522</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>54</v>
       </c>
@@ -3140,8 +3778,14 @@
       <c r="E96">
         <v>603</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="H96" s="4">
+        <v>1838966</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>56</v>
       </c>
@@ -3154,12 +3798,243 @@
       <c r="E97">
         <v>603</v>
       </c>
+      <c r="H97" s="4">
+        <v>1838966</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>210</v>
+      </c>
+      <c r="H98" s="4">
+        <v>1466932</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>212</v>
+      </c>
+      <c r="J99" s="5">
+        <v>350820635884</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>213</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1773364</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>215</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H101" s="4">
+        <v>1773348</v>
+      </c>
+      <c r="I101" s="9"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>217</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H102" s="4">
+        <v>1219149</v>
+      </c>
+      <c r="I102" s="9"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>219</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H103" s="4">
+        <v>1782871</v>
+      </c>
+      <c r="I103" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A13:I110">
     <sortCondition ref="A13"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="J61:J71"/>
+    <mergeCell ref="I100:I103"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2320829"/>
+    <hyperlink ref="H4" r:id="rId3" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2320823"/>
+    <hyperlink ref="H5" r:id="rId4" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H6" r:id="rId5" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H9" r:id="rId6" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H10" r:id="rId7" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H11" r:id="rId8" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H12" r:id="rId9" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H13" r:id="rId10" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H14" r:id="rId11" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H16" r:id="rId12" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H17" r:id="rId13" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H18" r:id="rId14" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H24" r:id="rId15" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H25" r:id="rId16" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1759265"/>
+    <hyperlink ref="H7" r:id="rId17" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2320827"/>
+    <hyperlink ref="H20" r:id="rId18" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2320827"/>
+    <hyperlink ref="H23" r:id="rId19" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2320827"/>
+    <hyperlink ref="H26" r:id="rId20" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2320827"/>
+    <hyperlink ref="H21" r:id="rId21" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2332763"/>
+    <hyperlink ref="H22" r:id="rId22" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2332763"/>
+    <hyperlink ref="H8" r:id="rId23" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1754182"/>
+    <hyperlink ref="H15" r:id="rId24" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1754182"/>
+    <hyperlink ref="H19" r:id="rId25" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1754182"/>
+    <hyperlink ref="H27" r:id="rId26" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1508414"/>
+    <hyperlink ref="H28" r:id="rId27" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1843694"/>
+    <hyperlink ref="H29" r:id="rId28" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1843694"/>
+    <hyperlink ref="H30" r:id="rId29" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2211947"/>
+    <hyperlink ref="H32" r:id="rId30" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1924834"/>
+    <hyperlink ref="H33" r:id="rId31" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2128216"/>
+    <hyperlink ref="H34" r:id="rId32" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1308876"/>
+    <hyperlink ref="H35" r:id="rId33" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1635729"/>
+    <hyperlink ref="H38" r:id="rId34" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2099239"/>
+    <hyperlink ref="H39" r:id="rId35" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2099239"/>
+    <hyperlink ref="H37" r:id="rId36" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2099236"/>
+    <hyperlink ref="H40" r:id="rId37" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2254188"/>
+    <hyperlink ref="H43" r:id="rId38" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2081851"/>
+    <hyperlink ref="H44:H52" r:id="rId39" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2081851"/>
+    <hyperlink ref="H53" r:id="rId40" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1577690"/>
+    <hyperlink ref="H54" r:id="rId41" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1577673"/>
+    <hyperlink ref="H55" r:id="rId42" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1577673"/>
+    <hyperlink ref="H59" r:id="rId43" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1577673"/>
+    <hyperlink ref="H60" r:id="rId44" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1577675"/>
+    <hyperlink ref="H87" r:id="rId45" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2067815"/>
+    <hyperlink ref="H88" r:id="rId46" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1262620"/>
+    <hyperlink ref="H89" r:id="rId47" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1196795"/>
+    <hyperlink ref="H90" r:id="rId48" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1332114"/>
+    <hyperlink ref="H91" r:id="rId49" display="http://au.element14.com/fairchild-semiconductor/pn2222atf/bipolar-transistor-npn-40v-to-92/dp/1695606"/>
+    <hyperlink ref="H92" r:id="rId50" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1312600"/>
+    <hyperlink ref="H93" r:id="rId51" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1312600"/>
+    <hyperlink ref="H94" r:id="rId52" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1748525"/>
+    <hyperlink ref="H95" r:id="rId53" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=2142522"/>
+    <hyperlink ref="H96" r:id="rId54" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1838966"/>
+    <hyperlink ref="H97" r:id="rId55" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1838966"/>
+    <hyperlink ref="H75" r:id="rId56" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=9949933"/>
+    <hyperlink ref="I2" r:id="rId57" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I5" r:id="rId58" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I6" r:id="rId59" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I9" r:id="rId60" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I10" r:id="rId61" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I11" r:id="rId62" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I12" r:id="rId63" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I13" r:id="rId64" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I14" r:id="rId65" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I16" r:id="rId66" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I17" r:id="rId67" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I18" r:id="rId68" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I24" r:id="rId69" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I25" r:id="rId70" display="http://www.digikey.com/product-detail/en/CL21F104ZBCNNNC/1276-1007-1-ND/3889093"/>
+    <hyperlink ref="I3" r:id="rId71" display="http://www.digikey.com/product-detail/en/CL21A225KAFNNNE/1276-1763-1-ND/3889849"/>
+    <hyperlink ref="I4" r:id="rId72" display="http://www.digikey.com/product-detail/en/CL21B223KBANNNC/1276-1081-1-ND/3889167"/>
+    <hyperlink ref="I7" r:id="rId73" display="http://www.digikey.com/product-detail/en/CL21B105KAFNNNE/1276-1066-1-ND/3889152"/>
+    <hyperlink ref="I20" r:id="rId74" display="http://www.digikey.com/product-detail/en/CL21B105KAFNNNE/1276-1066-1-ND/3889152"/>
+    <hyperlink ref="I23" r:id="rId75" display="http://www.digikey.com/product-detail/en/CL21B105KAFNNNE/1276-1066-1-ND/3889152"/>
+    <hyperlink ref="I26" r:id="rId76" display="http://www.digikey.com/product-detail/en/CL21B105KAFNNNE/1276-1066-1-ND/3889152"/>
+    <hyperlink ref="I21" r:id="rId77" display="http://www.digikey.com/product-detail/en/CL21C220JBANNNC/1276-1047-1-ND/3889133"/>
+    <hyperlink ref="I22" r:id="rId78" display="http://www.digikey.com/product-detail/en/CL21C220JBANNNC/1276-1047-1-ND/3889133"/>
+    <hyperlink ref="I8" r:id="rId79" display="http://www.digikey.com/product-detail/en/293D106X9016A2TE3/718-1123-1-ND/1559617"/>
+    <hyperlink ref="I15" r:id="rId80" display="http://www.digikey.com/product-detail/en/293D106X9016A2TE3/718-1123-1-ND/1559617"/>
+    <hyperlink ref="I19" r:id="rId81" display="http://www.digikey.com/product-detail/en/293D106X9016A2TE3/718-1123-1-ND/1559617"/>
+    <hyperlink ref="I27" r:id="rId82" display="http://www.digikey.com/product-detail/en/0901301206/WM8247-ND/760959"/>
+    <hyperlink ref="I28" r:id="rId83" display="http://www.digikey.com/product-detail/en/1N4001-TP/1N4001-TPMSCT-ND/773688"/>
+    <hyperlink ref="I29" r:id="rId84" display="http://www.digikey.com/product-detail/en/1N4001-TP/1N4001-TPMSCT-ND/773688"/>
+    <hyperlink ref="I30" r:id="rId85" display="http://www.digikey.com/product-detail/en/CD1206-S01575/CD1206-S01575CT-ND/3741949"/>
+    <hyperlink ref="I32" r:id="rId86" display="http://www.digikey.com/product-detail/en/MB50100V2-000U-A99/259-1558-ND/2757783"/>
+    <hyperlink ref="I33" r:id="rId87" display="http://www.digikey.com/product-detail/en/MF-MSMF050-2/MF-MSMF050-2CT-ND/662842"/>
+    <hyperlink ref="I34" r:id="rId88" display="http://www.digikey.com/product-detail/en/USB-B1HSB6/ED2983-ND/2677744"/>
+    <hyperlink ref="I35" r:id="rId89" display="http://www.digikey.com/product-detail/en/742792063/732-1612-1-ND/1639556"/>
+    <hyperlink ref="I38" r:id="rId90" display="http://www.digikey.com/product-detail/en/APT2012SGC/754-1131-2-ND/1747530"/>
+    <hyperlink ref="I39" r:id="rId91" display="http://www.digikey.com/product-detail/en/APT2012SGC/754-1131-2-ND/1747530"/>
+    <hyperlink ref="I37" r:id="rId92" display="http://www.digikey.com/product-detail/en/APT2012EC/754-1128-1-ND/1747845"/>
+    <hyperlink ref="I40" r:id="rId93"/>
+    <hyperlink ref="I43" r:id="rId94" display="http://www.digikey.com/product-detail/en/ERJ-1TRQF1R0U/PT1.0YCT-ND/613922"/>
+    <hyperlink ref="I59" r:id="rId95" display="http://www.digikey.com/product-detail/en/CRT0805-BY-1002ELF/CRT0805-BY-1002ELFCT-ND/1775047"/>
+    <hyperlink ref="I54" r:id="rId96" display="http://www.digikey.com/product-detail/en/CRT0805-BY-1002ELF/CRT0805-BY-1002ELFCT-ND/1775047"/>
+    <hyperlink ref="I55" r:id="rId97" display="http://www.digikey.com/product-detail/en/CRT0805-BY-1002ELF/CRT0805-BY-1002ELFCT-ND/1775047"/>
+    <hyperlink ref="I53" r:id="rId98" display="http://www.digikey.com/product-detail/en/ERA-6AEB224V/P220KDACT-ND/1466003"/>
+    <hyperlink ref="I60" r:id="rId99" display="http://www.digikey.com/product-detail/en/ERA-6AEB153V/P15KDACT-ND/1465975"/>
+    <hyperlink ref="I75" r:id="rId100" display="http://www.digikey.com/product-detail/en/G6RN-1 DC5/Z987-ND/260142"/>
+    <hyperlink ref="I87" r:id="rId101" display="http://www.digikey.com/product-detail/en/ADR380ARTZ-REEL7/ADR380ARTZ-REEL7CT-ND/1278862"/>
+    <hyperlink ref="I88" r:id="rId102" display="http://www.digikey.com/product-detail/en/LM324AMX%2FNOPB/LM324AMX%2FNOPBCT-ND/1010531"/>
+    <hyperlink ref="I89" r:id="rId103" display="http://www.digikey.com/product-detail/en/MCP3204T-CI%2FSL/MCP3204T-CI%2FSLCT-ND/669497"/>
+    <hyperlink ref="I90" r:id="rId104" display="http://www.digikey.com/product-detail/en/MCP4922T-E%2FSL/MCP4922T-E%2FSLCT-ND/736003"/>
+    <hyperlink ref="I91" r:id="rId105" display="http://www.digikey.com/product-detail/en/PN2222ATFR/PN2222AD26ZCT-ND/459004"/>
+    <hyperlink ref="I92" r:id="rId106" display="http://www.digikey.com/product-detail/en/LM94022BIMG%2FNOPB/LM94022BIMG%2FNOPBCT-ND/808023"/>
+    <hyperlink ref="I93" r:id="rId107" display="http://www.digikey.com/product-detail/en/LM94022BIMG%2FNOPB/LM94022BIMG%2FNOPBCT-ND/808023"/>
+    <hyperlink ref="I94" r:id="rId108" display="http://www.digikey.com/product-detail/en/ATMEGA32U4-AUR/ATMEGA32U4-AURCT-ND/3440960"/>
+    <hyperlink ref="I95" r:id="rId109" display="http://www.digikey.com/product-detail/en/AT-16.000MAGE-T/887-1608-1-ND/3182341"/>
+    <hyperlink ref="I96" r:id="rId110" display="http://www.digikey.com/product-detail/en/CG0603MLC-05E/CG0603MLC-05ECT-ND/3438061"/>
+    <hyperlink ref="I97" r:id="rId111" display="http://www.digikey.com/product-detail/en/CG0603MLC-05E/CG0603MLC-05ECT-ND/3438061"/>
+    <hyperlink ref="J31" r:id="rId112" display="http://www.ebay.com/sch/i.html?_from=R40&amp;_trksid=p2050601.m570.l1313.TR11.TRC1.A0.H0.Xrotary+encoder&amp;_nkw=rotary+encoder&amp;_sacat=0"/>
+    <hyperlink ref="J36" r:id="rId113" display="http://www.ebay.com/itm/2004-204-20x4-Character-LCD-Display-Module-HD44780-Controller-Blue-Blacklight-/400448319287?pt=LH_DefaultDomain_0&amp;hash=item5d3c946f37"/>
+    <hyperlink ref="J41" r:id="rId114" display="http://www.ebay.com/itm/10x-Male-40-Pin-Single-Row-0-1-2-54mm-Pitch-Breakable-Header-/371104220164?pt=LH_DefaultDomain_0&amp;hash=item5667890404"/>
+    <hyperlink ref="J42" r:id="rId115" display="http://www.ebay.com/itm/10x-Male-40-Pin-Single-Row-0-1-2-54mm-Pitch-Breakable-Header-/371104220164?pt=LH_DefaultDomain_0&amp;hash=item5667890404"/>
+    <hyperlink ref="J72" r:id="rId116" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
+    <hyperlink ref="I73" r:id="rId117" display="http://au.element14.com/bourns/3362p-1-103lf/pot-trimmer-10k-3-pin/dp/9354301"/>
+    <hyperlink ref="J73" r:id="rId118" display="http://www.digikey.com/product-detail/en/3362P-1-103LF/3362P-103LF-ND/1088412"/>
+    <hyperlink ref="J77" r:id="rId119" display="http://www.ebay.com/itm/10x-Male-40-Pin-Single-Row-0-1-2-54mm-Pitch-Breakable-Header-/371104220164?pt=LH_DefaultDomain_0&amp;hash=item5667890404"/>
+    <hyperlink ref="J78:J86" r:id="rId120" display="http://www.ebay.com/itm/10x-Male-40-Pin-Single-Row-0-1-2-54mm-Pitch-Breakable-Header-/371104220164?pt=LH_DefaultDomain_0&amp;hash=item5667890404"/>
+    <hyperlink ref="J76" r:id="rId121" display="http://www.ebay.com/itm/100pcs-Tactile-Pushbutton-Switch-Momentary-Tact-LCD-Screen-Monitor-4pin-6-6-5mm-/221432348499?pt=LH_DefaultDomain_0&amp;hash=item338e657f53"/>
+    <hyperlink ref="H98" r:id="rId122" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1466932"/>
+    <hyperlink ref="I98" r:id="rId123" display="http://www.digikey.com/product-detail/en/9072/9072-ND/4499377"/>
+    <hyperlink ref="J99" r:id="rId124" display="http://www.ebay.com/itm/50-pcs-M3-x-6mm-Philips-Head-Screw-/350820635884?pt=LH_DefaultDomain_0&amp;hash=item51ae8a14ec"/>
+    <hyperlink ref="H100" r:id="rId125" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1773364"/>
+    <hyperlink ref="H101" r:id="rId126" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1773348"/>
+    <hyperlink ref="H102" r:id="rId127" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1219149"/>
+    <hyperlink ref="H103" r:id="rId128" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1782871"/>
+    <hyperlink ref="J58" r:id="rId129" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
+    <hyperlink ref="J57" r:id="rId130" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
+    <hyperlink ref="J56" r:id="rId131" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
+    <hyperlink ref="J74" r:id="rId132" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId133"/>
 </worksheet>
 </file>
--- a/Design Spark/rev 2/Dummy Load Rev 2 (Bill Of Materials).xlsx
+++ b/Design Spark/rev 2/Dummy Load Rev 2 (Bill Of Materials).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="224">
   <si>
     <t>Ref Name</t>
   </si>
@@ -681,6 +681,12 @@
   </si>
   <si>
     <t>Cannot Find</t>
+  </si>
+  <si>
+    <t>Binding Post - Black</t>
+  </si>
+  <si>
+    <t>Binding Post - Red</t>
   </si>
 </sst>
 </file>
@@ -1189,13 +1195,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,10 +1544,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2962,7 +2968,7 @@
       <c r="G56" t="s">
         <v>102</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="6">
         <v>111428926233</v>
       </c>
     </row>
@@ -2985,7 +2991,7 @@
       <c r="G57" t="s">
         <v>102</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="6">
         <v>111428926233</v>
       </c>
     </row>
@@ -3008,7 +3014,7 @@
       <c r="G58" t="s">
         <v>102</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="6">
         <v>111428926233</v>
       </c>
     </row>
@@ -3089,7 +3095,7 @@
       <c r="G61" t="s">
         <v>102</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J61" s="8" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3112,7 +3118,7 @@
       <c r="G62" t="s">
         <v>102</v>
       </c>
-      <c r="J62" s="6"/>
+      <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
@@ -3133,7 +3139,7 @@
       <c r="G63" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="6"/>
+      <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
@@ -3154,7 +3160,7 @@
       <c r="G64" t="s">
         <v>102</v>
       </c>
-      <c r="J64" s="6"/>
+      <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
@@ -3175,7 +3181,7 @@
       <c r="G65" t="s">
         <v>102</v>
       </c>
-      <c r="J65" s="6"/>
+      <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
@@ -3196,7 +3202,7 @@
       <c r="G66" t="s">
         <v>102</v>
       </c>
-      <c r="J66" s="6"/>
+      <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
@@ -3217,7 +3223,7 @@
       <c r="G67" t="s">
         <v>102</v>
       </c>
-      <c r="J67" s="6"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
@@ -3238,7 +3244,7 @@
       <c r="G68" t="s">
         <v>102</v>
       </c>
-      <c r="J68" s="6"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
@@ -3259,7 +3265,7 @@
       <c r="G69" t="s">
         <v>102</v>
       </c>
-      <c r="J69" s="6"/>
+      <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
@@ -3280,7 +3286,7 @@
       <c r="G70" t="s">
         <v>102</v>
       </c>
-      <c r="J70" s="6"/>
+      <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
@@ -3301,7 +3307,7 @@
       <c r="G71" t="s">
         <v>102</v>
       </c>
-      <c r="J71" s="6"/>
+      <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
@@ -3322,7 +3328,7 @@
       <c r="G72" t="s">
         <v>102</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="6">
         <v>111428926233</v>
       </c>
     </row>
@@ -3371,7 +3377,7 @@
       <c r="G74" t="s">
         <v>102</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="6">
         <v>111428926233</v>
       </c>
     </row>
@@ -3837,7 +3843,7 @@
       <c r="C100" t="s">
         <v>213</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="7" t="s">
         <v>214</v>
       </c>
       <c r="H100" s="4">
@@ -3854,7 +3860,7 @@
       <c r="C101" t="s">
         <v>215</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="7" t="s">
         <v>216</v>
       </c>
       <c r="H101" s="4">
@@ -3869,7 +3875,7 @@
       <c r="C102" t="s">
         <v>217</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="7" t="s">
         <v>218</v>
       </c>
       <c r="H102" s="4">
@@ -3884,13 +3890,35 @@
       <c r="C103" t="s">
         <v>219</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="7" t="s">
         <v>220</v>
       </c>
       <c r="H103" s="4">
         <v>1782871</v>
       </c>
       <c r="I103" s="9"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>222</v>
+      </c>
+      <c r="H104" s="4">
+        <v>173711301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="4">
+        <v>173711201</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A13:I110">
@@ -4033,8 +4061,10 @@
     <hyperlink ref="J57" r:id="rId130" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
     <hyperlink ref="J56" r:id="rId131" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
     <hyperlink ref="J74" r:id="rId132" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
+    <hyperlink ref="H104" r:id="rId133" display="http://au.element14.com/jsp/search/productdetail.jsp?id=1737113&amp;Ntt=173711301&amp;whydiditmatch=clone&amp;matchedProduct=173711301"/>
+    <hyperlink ref="H105" r:id="rId134" display="http://au.element14.com/cliff-electronic-components/tp-6s-red-assembled/binding-post-30a-4mm-panel-red/dp/1737112?Ntt=173711201&amp;whydiditmatch=clone&amp;matchedProduct=173711201"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId133"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId135"/>
 </worksheet>
 </file>
--- a/Design Spark/rev 2/Dummy Load Rev 2 (Bill Of Materials).xlsx
+++ b/Design Spark/rev 2/Dummy Load Rev 2 (Bill Of Materials).xlsx
@@ -1546,8 +1546,8 @@
   </sheetPr>
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77:J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2549,7 +2549,7 @@
         <v>60</v>
       </c>
       <c r="J41" s="5">
-        <v>371104220164</v>
+        <v>251273258816</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2569,7 +2569,7 @@
         <v>60</v>
       </c>
       <c r="J42" s="5">
-        <v>371104220164</v>
+        <v>251273258816</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3432,7 +3432,7 @@
         <v>64</v>
       </c>
       <c r="J77" s="5">
-        <v>371104220164</v>
+        <v>251273258816</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3449,7 +3449,7 @@
         <v>64</v>
       </c>
       <c r="J78" s="5">
-        <v>371104220164</v>
+        <v>251273258816</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3466,7 +3466,7 @@
         <v>64</v>
       </c>
       <c r="J79" s="5">
-        <v>371104220164</v>
+        <v>251273258816</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3483,7 +3483,7 @@
         <v>64</v>
       </c>
       <c r="J80" s="5">
-        <v>371104220164</v>
+        <v>251273258816</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3500,7 +3500,7 @@
         <v>64</v>
       </c>
       <c r="J81" s="5">
-        <v>371104220164</v>
+        <v>251273258816</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3517,7 +3517,7 @@
         <v>64</v>
       </c>
       <c r="J82" s="5">
-        <v>371104220164</v>
+        <v>251273258816</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3534,7 +3534,7 @@
         <v>64</v>
       </c>
       <c r="J83" s="5">
-        <v>371104220164</v>
+        <v>251273258816</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3551,7 +3551,7 @@
         <v>64</v>
       </c>
       <c r="J84" s="5">
-        <v>371104220164</v>
+        <v>251273258816</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3568,7 +3568,7 @@
         <v>64</v>
       </c>
       <c r="J85" s="5">
-        <v>371104220164</v>
+        <v>251273258816</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3585,7 +3585,7 @@
         <v>64</v>
       </c>
       <c r="J86" s="5">
-        <v>371104220164</v>
+        <v>251273258816</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4042,27 +4042,27 @@
     <hyperlink ref="I97" r:id="rId111" display="http://www.digikey.com/product-detail/en/CG0603MLC-05E/CG0603MLC-05ECT-ND/3438061"/>
     <hyperlink ref="J31" r:id="rId112" display="http://www.ebay.com/sch/i.html?_from=R40&amp;_trksid=p2050601.m570.l1313.TR11.TRC1.A0.H0.Xrotary+encoder&amp;_nkw=rotary+encoder&amp;_sacat=0"/>
     <hyperlink ref="J36" r:id="rId113" display="http://www.ebay.com/itm/2004-204-20x4-Character-LCD-Display-Module-HD44780-Controller-Blue-Blacklight-/400448319287?pt=LH_DefaultDomain_0&amp;hash=item5d3c946f37"/>
-    <hyperlink ref="J41" r:id="rId114" display="http://www.ebay.com/itm/10x-Male-40-Pin-Single-Row-0-1-2-54mm-Pitch-Breakable-Header-/371104220164?pt=LH_DefaultDomain_0&amp;hash=item5667890404"/>
-    <hyperlink ref="J42" r:id="rId115" display="http://www.ebay.com/itm/10x-Male-40-Pin-Single-Row-0-1-2-54mm-Pitch-Breakable-Header-/371104220164?pt=LH_DefaultDomain_0&amp;hash=item5667890404"/>
-    <hyperlink ref="J72" r:id="rId116" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
-    <hyperlink ref="I73" r:id="rId117" display="http://au.element14.com/bourns/3362p-1-103lf/pot-trimmer-10k-3-pin/dp/9354301"/>
-    <hyperlink ref="J73" r:id="rId118" display="http://www.digikey.com/product-detail/en/3362P-1-103LF/3362P-103LF-ND/1088412"/>
-    <hyperlink ref="J77" r:id="rId119" display="http://www.ebay.com/itm/10x-Male-40-Pin-Single-Row-0-1-2-54mm-Pitch-Breakable-Header-/371104220164?pt=LH_DefaultDomain_0&amp;hash=item5667890404"/>
-    <hyperlink ref="J78:J86" r:id="rId120" display="http://www.ebay.com/itm/10x-Male-40-Pin-Single-Row-0-1-2-54mm-Pitch-Breakable-Header-/371104220164?pt=LH_DefaultDomain_0&amp;hash=item5667890404"/>
-    <hyperlink ref="J76" r:id="rId121" display="http://www.ebay.com/itm/100pcs-Tactile-Pushbutton-Switch-Momentary-Tact-LCD-Screen-Monitor-4pin-6-6-5mm-/221432348499?pt=LH_DefaultDomain_0&amp;hash=item338e657f53"/>
-    <hyperlink ref="H98" r:id="rId122" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1466932"/>
-    <hyperlink ref="I98" r:id="rId123" display="http://www.digikey.com/product-detail/en/9072/9072-ND/4499377"/>
-    <hyperlink ref="J99" r:id="rId124" display="http://www.ebay.com/itm/50-pcs-M3-x-6mm-Philips-Head-Screw-/350820635884?pt=LH_DefaultDomain_0&amp;hash=item51ae8a14ec"/>
-    <hyperlink ref="H100" r:id="rId125" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1773364"/>
-    <hyperlink ref="H101" r:id="rId126" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1773348"/>
-    <hyperlink ref="H102" r:id="rId127" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1219149"/>
-    <hyperlink ref="H103" r:id="rId128" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1782871"/>
-    <hyperlink ref="J58" r:id="rId129" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
-    <hyperlink ref="J57" r:id="rId130" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
-    <hyperlink ref="J56" r:id="rId131" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
-    <hyperlink ref="J74" r:id="rId132" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
-    <hyperlink ref="H104" r:id="rId133" display="http://au.element14.com/jsp/search/productdetail.jsp?id=1737113&amp;Ntt=173711301&amp;whydiditmatch=clone&amp;matchedProduct=173711301"/>
-    <hyperlink ref="H105" r:id="rId134" display="http://au.element14.com/cliff-electronic-components/tp-6s-red-assembled/binding-post-30a-4mm-panel-red/dp/1737112?Ntt=173711201&amp;whydiditmatch=clone&amp;matchedProduct=173711201"/>
+    <hyperlink ref="J72" r:id="rId114" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
+    <hyperlink ref="I73" r:id="rId115" display="http://au.element14.com/bourns/3362p-1-103lf/pot-trimmer-10k-3-pin/dp/9354301"/>
+    <hyperlink ref="J73" r:id="rId116" display="http://www.digikey.com/product-detail/en/3362P-1-103LF/3362P-103LF-ND/1088412"/>
+    <hyperlink ref="J76" r:id="rId117" display="http://www.ebay.com/itm/100pcs-Tactile-Pushbutton-Switch-Momentary-Tact-LCD-Screen-Monitor-4pin-6-6-5mm-/221432348499?pt=LH_DefaultDomain_0&amp;hash=item338e657f53"/>
+    <hyperlink ref="H98" r:id="rId118" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1466932"/>
+    <hyperlink ref="I98" r:id="rId119" display="http://www.digikey.com/product-detail/en/9072/9072-ND/4499377"/>
+    <hyperlink ref="J99" r:id="rId120" display="http://www.ebay.com/itm/50-pcs-M3-x-6mm-Philips-Head-Screw-/350820635884?pt=LH_DefaultDomain_0&amp;hash=item51ae8a14ec"/>
+    <hyperlink ref="H100" r:id="rId121" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1773364"/>
+    <hyperlink ref="H101" r:id="rId122" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1773348"/>
+    <hyperlink ref="H102" r:id="rId123" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1219149"/>
+    <hyperlink ref="H103" r:id="rId124" display="https://au.element14.com/jsp/search/productdetail.jsp?SKU=1782871"/>
+    <hyperlink ref="J58" r:id="rId125" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
+    <hyperlink ref="J57" r:id="rId126" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
+    <hyperlink ref="J56" r:id="rId127" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
+    <hyperlink ref="J74" r:id="rId128" display="http://www.ebay.com/itm/0805-E12-SMDR-SMD-Resistor-Assorted-Kit-86-values-x-50-5-4300pcs-New-/111428926233?pt=LH_DefaultDomain_0&amp;hash=item19f1ae7b19"/>
+    <hyperlink ref="H104" r:id="rId129" display="http://au.element14.com/jsp/search/productdetail.jsp?id=1737113&amp;Ntt=173711301&amp;whydiditmatch=clone&amp;matchedProduct=173711301"/>
+    <hyperlink ref="H105" r:id="rId130" display="http://au.element14.com/cliff-electronic-components/tp-6s-red-assembled/binding-post-30a-4mm-panel-red/dp/1737112?Ntt=173711201&amp;whydiditmatch=clone&amp;matchedProduct=173711201"/>
+    <hyperlink ref="J41" r:id="rId131" display="http://www.ebay.com.au/itm/New-40-Pin-2-54mm-Male-Female-SIL-Header-Socket-Single-Row-Strip-PCB-Connector-/251273258816?pt=AU_B_I_Electrical_Test_Equipment&amp;hash=item3a810da740&amp;_uhb=1"/>
+    <hyperlink ref="J42" r:id="rId132" display="http://www.ebay.com.au/itm/New-40-Pin-2-54mm-Male-Female-SIL-Header-Socket-Single-Row-Strip-PCB-Connector-/251273258816?pt=AU_B_I_Electrical_Test_Equipment&amp;hash=item3a810da740&amp;_uhb=1"/>
+    <hyperlink ref="J77" r:id="rId133" display="http://www.ebay.com.au/itm/New-40-Pin-2-54mm-Male-Female-SIL-Header-Socket-Single-Row-Strip-PCB-Connector-/251273258816?pt=AU_B_I_Electrical_Test_Equipment&amp;hash=item3a810da740&amp;_uhb=1"/>
+    <hyperlink ref="J78:J86" r:id="rId134" display="http://www.ebay.com.au/itm/New-40-Pin-2-54mm-Male-Female-SIL-Header-Socket-Single-Row-Strip-PCB-Connector-/251273258816?pt=AU_B_I_Electrical_Test_Equipment&amp;hash=item3a810da740&amp;_uhb=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId135"/>
